--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.05716823592701</v>
+        <v>25.81602566666667</v>
       </c>
       <c r="H2">
-        <v>5.05716823592701</v>
+        <v>77.44807700000001</v>
       </c>
       <c r="I2">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="J2">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N2">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O2">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P2">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q2">
-        <v>37.33348946813419</v>
+        <v>227.3591736544505</v>
       </c>
       <c r="R2">
-        <v>37.33348946813419</v>
+        <v>2046.232562890054</v>
       </c>
       <c r="S2">
-        <v>0.06866099189904137</v>
+        <v>0.1342303318669702</v>
       </c>
       <c r="T2">
-        <v>0.06866099189904137</v>
+        <v>0.1342303318669702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.05716823592701</v>
+        <v>25.81602566666667</v>
       </c>
       <c r="H3">
-        <v>5.05716823592701</v>
+        <v>77.44807700000001</v>
       </c>
       <c r="I3">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="J3">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N3">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P3">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q3">
-        <v>94.46789516622863</v>
+        <v>484.4865311341939</v>
       </c>
       <c r="R3">
-        <v>94.46789516622863</v>
+        <v>4360.378780207745</v>
       </c>
       <c r="S3">
-        <v>0.1737383640568672</v>
+        <v>0.2860354689626884</v>
       </c>
       <c r="T3">
-        <v>0.1737383640568672</v>
+        <v>0.2860354689626884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.05716823592701</v>
+        <v>25.81602566666667</v>
       </c>
       <c r="H4">
-        <v>5.05716823592701</v>
+        <v>77.44807700000001</v>
       </c>
       <c r="I4">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="J4">
-        <v>0.4546555263554203</v>
+        <v>0.7742517153725241</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N4">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O4">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P4">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q4">
-        <v>115.4114335226681</v>
+        <v>599.5809136160294</v>
       </c>
       <c r="R4">
-        <v>115.4114335226681</v>
+        <v>5396.228222544265</v>
       </c>
       <c r="S4">
-        <v>0.2122561703995118</v>
+        <v>0.3539859145428656</v>
       </c>
       <c r="T4">
-        <v>0.2122561703995118</v>
+        <v>0.3539859145428656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.48891411846386</v>
+        <v>2.718527666666667</v>
       </c>
       <c r="H5">
-        <v>2.48891411846386</v>
+        <v>8.155583</v>
       </c>
       <c r="I5">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="J5">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N5">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O5">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P5">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q5">
-        <v>18.37388923877242</v>
+        <v>23.94180311991844</v>
       </c>
       <c r="R5">
-        <v>18.37388923877242</v>
+        <v>215.476228079266</v>
       </c>
       <c r="S5">
-        <v>0.03379189778801799</v>
+        <v>0.01413497474777353</v>
       </c>
       <c r="T5">
-        <v>0.03379189778801799</v>
+        <v>0.01413497474777354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.48891411846386</v>
+        <v>2.718527666666667</v>
       </c>
       <c r="H6">
-        <v>2.48891411846386</v>
+        <v>8.155583</v>
       </c>
       <c r="I6">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="J6">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N6">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P6">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q6">
-        <v>46.49291205114335</v>
+        <v>51.01831149464179</v>
       </c>
       <c r="R6">
-        <v>46.49291205114335</v>
+        <v>459.164803451776</v>
       </c>
       <c r="S6">
-        <v>0.08550632429982535</v>
+        <v>0.03012064467487202</v>
       </c>
       <c r="T6">
-        <v>0.08550632429982535</v>
+        <v>0.03012064467487202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.48891411846386</v>
+        <v>2.718527666666667</v>
       </c>
       <c r="H7">
-        <v>2.48891411846386</v>
+        <v>8.155583</v>
       </c>
       <c r="I7">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="J7">
-        <v>0.2237613039140261</v>
+        <v>0.08153170965901445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N7">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O7">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P7">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q7">
-        <v>56.80039360487429</v>
+        <v>63.13819652631734</v>
       </c>
       <c r="R7">
-        <v>56.80039360487429</v>
+        <v>568.2437687368561</v>
       </c>
       <c r="S7">
-        <v>0.1044630818261828</v>
+        <v>0.03727609023636889</v>
       </c>
       <c r="T7">
-        <v>0.1044630818261828</v>
+        <v>0.03727609023636889</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.57699422287181</v>
+        <v>4.808641333333334</v>
       </c>
       <c r="H8">
-        <v>3.57699422287181</v>
+        <v>14.425924</v>
       </c>
       <c r="I8">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="J8">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N8">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O8">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P8">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q8">
-        <v>26.4064136127523</v>
+        <v>42.34922656429422</v>
       </c>
       <c r="R8">
-        <v>26.4064136127523</v>
+        <v>381.143039078648</v>
       </c>
       <c r="S8">
-        <v>0.04856472237066069</v>
+        <v>0.02500251318063959</v>
       </c>
       <c r="T8">
-        <v>0.04856472237066069</v>
+        <v>0.02500251318063959</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.57699422287181</v>
+        <v>4.808641333333334</v>
       </c>
       <c r="H9">
-        <v>3.57699422287181</v>
+        <v>14.425924</v>
       </c>
       <c r="I9">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="J9">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N9">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O9">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P9">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q9">
-        <v>66.81824679192592</v>
+        <v>90.2432461578809</v>
       </c>
       <c r="R9">
-        <v>66.81824679192592</v>
+        <v>812.1892154209282</v>
       </c>
       <c r="S9">
-        <v>0.122887176287244</v>
+        <v>0.05327861060462613</v>
       </c>
       <c r="T9">
-        <v>0.122887176287244</v>
+        <v>0.05327861060462613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.57699422287181</v>
+        <v>4.808641333333334</v>
       </c>
       <c r="H10">
-        <v>3.57699422287181</v>
+        <v>14.425924</v>
       </c>
       <c r="I10">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="J10">
-        <v>0.3215831697305536</v>
+        <v>0.1442165749684613</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N10">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O10">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P10">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q10">
-        <v>81.63185634821268</v>
+        <v>111.6813874110187</v>
       </c>
       <c r="R10">
-        <v>81.63185634821268</v>
+        <v>1005.132486699168</v>
       </c>
       <c r="S10">
-        <v>0.150131271072649</v>
+        <v>0.06593545118319559</v>
       </c>
       <c r="T10">
-        <v>0.150131271072649</v>
+        <v>0.06593545118319559</v>
       </c>
     </row>
   </sheetData>
